--- a/Tin_chi.xlsx
+++ b/Tin_chi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5EB5B56C-268D-4768-91D5-CBC216C335A0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2317E1AD-16F3-4E32-A821-7AAD5A4D3DD4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -227,13 +227,22 @@
   </si>
   <si>
     <t>Thứ 4(T8-10)</t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT.01_TH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +275,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -913,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340FF77B-364E-4254-9ECE-B722B1B19F80}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,6 +977,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
+        <f>IF(ISBLANK(B2),"",1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -994,9 +1010,9 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
-        <f>A2+1</f>
-        <v>2</v>
+      <c r="A3" s="22" t="str">
+        <f t="shared" ref="A3:A32" si="0">IF(ISBLANK(B3),"",1)</f>
+        <v/>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="9"/>
@@ -1013,8 +1029,8 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
-        <f t="shared" ref="A4:A26" si="0">A3+1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>10</v>
@@ -1046,9 +1062,9 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="12"/>
@@ -1066,7 +1082,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>22</v>
@@ -1098,9 +1114,9 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="A7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
@@ -1118,7 +1134,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>22</v>
@@ -1150,9 +1166,9 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="12"/>
@@ -1170,7 +1186,7 @@
     <row r="10" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>32</v>
@@ -1202,9 +1218,9 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="A11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
@@ -1222,7 +1238,7 @@
     <row r="12" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>32</v>
@@ -1254,9 +1270,9 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="A13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="12"/>
@@ -1274,7 +1290,7 @@
     <row r="14" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>32</v>
@@ -1306,9 +1322,9 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="A15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
@@ -1326,7 +1342,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>43</v>
@@ -1358,9 +1374,9 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="12"/>
@@ -1378,7 +1394,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>49</v>
@@ -1410,9 +1426,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="A19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9"/>
@@ -1430,7 +1446,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>49</v>
@@ -1462,9 +1478,9 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="A21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="12"/>
@@ -1482,7 +1498,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>57</v>
@@ -1514,9 +1530,9 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="15"/>
@@ -1536,9 +1552,9 @@
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="A24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9"/>
@@ -1556,7 +1572,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>62</v>
@@ -1588,9 +1604,9 @@
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="A26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="19"/>
@@ -1605,7 +1621,164 @@
       <c r="J26" s="19"/>
       <c r="K26" s="21"/>
     </row>
+    <row r="27" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="4">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="6">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tin_chi.xlsx
+++ b/Tin_chi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2317E1AD-16F3-4E32-A821-7AAD5A4D3DD4}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2926A21E-6CC6-49E0-9657-F02601436858}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT.01_TH</t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).03_LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abc</t>
   </si>
 </sst>
 </file>
@@ -928,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340FF77B-364E-4254-9ECE-B722B1B19F80}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,6 +1783,48 @@
       <c r="J32" s="9"/>
       <c r="K32" s="11"/>
     </row>
+    <row r="33" spans="2:10" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="B33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="24"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tin_chi.xlsx
+++ b/Tin_chi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2926A21E-6CC6-49E0-9657-F02601436858}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{95C5D6F0-A0F7-446C-A34D-D0F72DC64E34}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -236,12 +236,6 @@
   </si>
   <si>
     <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT.01_TH</t>
-  </si>
-  <si>
-    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).03_LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abc</t>
   </si>
 </sst>
 </file>
@@ -315,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -532,11 +526,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,6 +683,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -934,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340FF77B-364E-4254-9ECE-B722B1B19F80}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,7 +1020,7 @@
     <col min="8" max="8" width="17.7734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +1051,14 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <f>IF(ISBLANK(B2),"",1)</f>
         <v>1</v>
@@ -1014,8 +1091,14 @@
         <v>68</v>
       </c>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="str">
         <f t="shared" ref="A3:A32" si="0">IF(ISBLANK(B3),"",1)</f>
         <v/>
@@ -1032,8 +1115,14 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1066,8 +1155,14 @@
         <v>0</v>
       </c>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1084,8 +1179,14 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1118,8 +1219,14 @@
         <v>11</v>
       </c>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1136,8 +1243,14 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1170,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1188,8 +1307,14 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
+    </row>
+    <row r="10" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1222,8 +1347,14 @@
         <v>20</v>
       </c>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1240,8 +1371,14 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1274,8 +1411,14 @@
         <v>21</v>
       </c>
       <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1292,8 +1435,14 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1326,8 +1475,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1344,8 +1499,14 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1378,8 +1539,14 @@
         <v>28</v>
       </c>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1396,8 +1563,14 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1430,8 +1603,14 @@
         <v>7</v>
       </c>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1448,8 +1627,14 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1482,8 +1667,14 @@
         <v>7</v>
       </c>
       <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1500,8 +1691,14 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1534,8 +1731,14 @@
         <v>7</v>
       </c>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1556,8 +1759,14 @@
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1574,8 +1783,14 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1608,8 +1823,14 @@
         <v>28</v>
       </c>
       <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1626,8 +1847,14 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
+    </row>
+    <row r="27" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1660,8 +1887,14 @@
         <v>20</v>
       </c>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1678,8 +1911,14 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
+    </row>
+    <row r="29" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1712,8 +1951,14 @@
         <v>21</v>
       </c>
       <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1730,8 +1975,14 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
+    </row>
+    <row r="31" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1764,8 +2015,14 @@
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1782,35 +2039,23 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="4">
-        <v>20</v>
-      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="24"/>
@@ -1818,12 +2063,19 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" alignment="center"/>

--- a/Tin_chi.xlsx
+++ b/Tin_chi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{95C5D6F0-A0F7-446C-A34D-D0F72DC64E34}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA9F7475-D623-462C-9D13-CD9AE5396773}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -227,15 +227,6 @@
   </si>
   <si>
     <t>Thứ 4(T8-10)</t>
-  </si>
-  <si>
-    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lập trình hướng đối tượng_2.1.20(13.IT.VJ).02_LT.01_TH</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340FF77B-364E-4254-9ECE-B722B1B19F80}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,7 +1091,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="str">
-        <f t="shared" ref="A3:A32" si="0">IF(ISBLANK(B3),"",1)</f>
+        <f t="shared" ref="A3:A19" si="0">IF(ISBLANK(B3),"",1)</f>
         <v/>
       </c>
       <c r="B3" s="24"/>
@@ -1152,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7"/>
       <c r="M4" s="31"/>
@@ -1280,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7"/>
       <c r="M8" s="31"/>
@@ -1472,7 +1463,7 @@
         <v>28</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" s="5"/>
       <c r="M14" s="31"/>
@@ -1636,37 +1627,37 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B25),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="4">
         <v>7</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="5"/>
       <c r="M20" s="31"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
@@ -1676,21 +1667,25 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B26),"",1)</f>
         <v/>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="17"/>
       <c r="M21" s="31"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
@@ -1700,37 +1695,21 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B20),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="4">
-        <v>7</v>
-      </c>
-      <c r="K22" s="5"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
       <c r="M22" s="31"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
@@ -1740,25 +1719,37 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B21),"",1)</f>
         <v/>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8" t="s">
+      <c r="B23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="17"/>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>28</v>
+      </c>
+      <c r="K23" s="18"/>
       <c r="M23" s="31"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
@@ -1768,21 +1759,21 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B22),"",1)</f>
         <v/>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="21"/>
       <c r="M24" s="31"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
@@ -1792,37 +1783,37 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B23),"",1)</f>
         <v>1</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J25" s="6">
-        <v>28</v>
-      </c>
-      <c r="K25" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="K25" s="7"/>
       <c r="M25" s="31"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
@@ -1832,21 +1823,21 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(B24),"",1)</f>
         <v/>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="14"/>
       <c r="M26" s="31"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
@@ -1854,39 +1845,8 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="33"/>
     </row>
-    <row r="27" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="4">
-        <v>20</v>
-      </c>
-      <c r="K27" s="5"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
       <c r="M27" s="31"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
@@ -1895,22 +1855,7 @@
       <c r="R27" s="33"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="11"/>
+      <c r="A28" s="22"/>
       <c r="M28" s="31"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
@@ -1918,38 +1863,17 @@
       <c r="Q28" s="32"/>
       <c r="R28" s="33"/>
     </row>
-    <row r="29" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="6">
-        <v>21</v>
-      </c>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="7"/>
       <c r="M29" s="31"/>
       <c r="N29" s="32"/>
@@ -1959,18 +1883,13 @@
       <c r="R29" s="33"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -1982,38 +1901,17 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="33"/>
     </row>
-    <row r="31" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="M31" s="31"/>
       <c r="N31" s="32"/>
@@ -2023,18 +1921,13 @@
       <c r="R31" s="33"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>

--- a/Tin_chi.xlsx
+++ b/Tin_chi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA9F7475-D623-462C-9D13-CD9AE5396773}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{67DDE34C-4A5A-46A4-BE0C-922879340235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C48D78A-A367-4080-80B6-65E7669CE3F1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,57 +300,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF91A7B4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF91A7B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF91A7B4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF91A7B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF91A7B4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -407,61 +362,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF91A7B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF91A7B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF91A7B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF505050"/>
       </left>
       <right style="thin">
@@ -494,26 +394,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF91A7B4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF91A7B4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,102 +466,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -999,7 +890,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:K26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,963 +903,963 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <f>IF(ISBLANK(B2),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="26">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="26">
         <v>68</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
+      <c r="K2" s="26"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="str">
+      <c r="A3" s="24" t="str">
         <f t="shared" ref="A3:A19" si="0">IF(ISBLANK(B3),"",1)</f>
         <v/>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+      <c r="A4" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="29">
         <v>10</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="33"/>
+      <c r="K4" s="29"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="str">
+      <c r="A5" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="26">
         <v>11</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
+      <c r="K6" s="26"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="str">
+      <c r="A7" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+      <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="29">
         <v>10</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="str">
+      <c r="A9" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="26">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="26">
         <v>20</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
+      <c r="K10" s="26"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="str">
+      <c r="A11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="29">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="29">
         <v>21</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
+      <c r="K12" s="29"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="str">
+      <c r="A13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="33"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="26">
         <v>10</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33"/>
+      <c r="K14" s="26"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="str">
+      <c r="A15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="33"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="29">
         <v>28</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
+      <c r="K16" s="29"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="str">
+      <c r="A17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="26">
         <v>2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="26">
         <v>7</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
+      <c r="K18" s="26"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="str">
+      <c r="A19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="24">
         <f>IF(ISBLANK(B25),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="26">
         <v>0</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="26">
         <v>7</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="K20" s="26"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="str">
+      <c r="A21" s="24" t="str">
         <f>IF(ISBLANK(B26),"",1)</f>
         <v/>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="8" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="A22" s="24">
         <f>IF(ISBLANK(B20),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="str">
+      <c r="A23" s="24" t="str">
         <f>IF(ISBLANK(B21),"",1)</f>
         <v/>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="29">
         <v>3</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="29">
         <v>28</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="33"/>
+      <c r="K23" s="30"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="str">
+      <c r="A24" s="24" t="str">
         <f>IF(ISBLANK(B22),"",1)</f>
         <v/>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+      <c r="A25" s="24">
         <f>IF(ISBLANK(B23),"",1)</f>
         <v>1</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="29">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="29">
         <v>7</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
+      <c r="K25" s="29"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="str">
+      <c r="A26" s="24" t="str">
         <f>IF(ISBLANK(B24),"",1)</f>
         <v/>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="33"/>
+      <c r="A27" s="11"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="33"/>
+      <c r="A28" s="11"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="33"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="33"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="36"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E37" s="4"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E38" s="4"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E39" s="4"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" alignment="center"/>
